--- a/reports/Testing-Mode.xlsx
+++ b/reports/Testing-Mode.xlsx
@@ -5,22 +5,24 @@
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
     <sheet sheetId="1" name="Attendance Report" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Memo Report" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="124">
+  <si>
+    <t>Sr.No</t>
+  </si>
   <si>
     <t>Employee Name</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Day</t>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>SAGAR  VASOYA</t>
   </si>
   <si>
     <t>Status</t>
@@ -32,32 +34,371 @@
     <t>Out Time</t>
   </si>
   <si>
-    <t>Total Working Hour</t>
-  </si>
-  <si>
-    <t>Memo Type</t>
-  </si>
-  <si>
-    <t>Start and End Date</t>
-  </si>
-  <si>
-    <t>Memo Accepted</t>
-  </si>
-  <si>
-    <t>Memo Disapproved</t>
+    <t>Divy  Mehta</t>
+  </si>
+  <si>
+    <t>VIRAJ  AJAMERI</t>
+  </si>
+  <si>
+    <t>DRASHTEE  ZADAFIYA</t>
+  </si>
+  <si>
+    <t>KAVITA  PARATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TANNU  </t>
+  </si>
+  <si>
+    <t>DHAVAL  DAVDA</t>
+  </si>
+  <si>
+    <t>JAGRUTI  KOSHTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIYANKA  </t>
+  </si>
+  <si>
+    <t>BHAVESH  VORA</t>
+  </si>
+  <si>
+    <t>DIXITA  GALANI</t>
+  </si>
+  <si>
+    <t>NIKITA  PATIL</t>
+  </si>
+  <si>
+    <t>EKTA  PARMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHANDANI  </t>
+  </si>
+  <si>
+    <t>CHIRAG  BODAR</t>
+  </si>
+  <si>
+    <t>SHRUTI  DUDHAT</t>
+  </si>
+  <si>
+    <t>KALPESH  KACHADIYA</t>
+  </si>
+  <si>
+    <t>SUREKHA BEN  PATEL</t>
+  </si>
+  <si>
+    <t>KRISHNA  DHADUK</t>
+  </si>
+  <si>
+    <t>RUCHITA  DEVANI</t>
+  </si>
+  <si>
+    <t>RUSHIKA  BHAYANI</t>
+  </si>
+  <si>
+    <t>DHAVALGIRI  GOSWAMI</t>
+  </si>
+  <si>
+    <t>PARTH  JAIN</t>
+  </si>
+  <si>
+    <t>TUSHAR  SAVANI</t>
+  </si>
+  <si>
+    <t>BIPIN  BABARIYA</t>
+  </si>
+  <si>
+    <t>HARSHADPURI  GOSWAMI</t>
+  </si>
+  <si>
+    <t>SANDIP  KHUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TABASSUM  </t>
+  </si>
+  <si>
+    <t>UMESH  LAHERI</t>
+  </si>
+  <si>
+    <t>PARESH  PADMANI</t>
+  </si>
+  <si>
+    <t>BHAVIN  TALSANIYA</t>
+  </si>
+  <si>
+    <t>TINA  PATEL</t>
+  </si>
+  <si>
+    <t>DHARMIK   TRIVEDI</t>
+  </si>
+  <si>
+    <t>NILAM  RAVAL</t>
+  </si>
+  <si>
+    <t>PIYUSH  KATHIRIYA</t>
+  </si>
+  <si>
+    <t>RAHUL  VARIYA</t>
+  </si>
+  <si>
+    <t>CHIRAG  SOJITRA</t>
+  </si>
+  <si>
+    <t>RUTA  GHELANI</t>
+  </si>
+  <si>
+    <t>NIKITA  GAJERA</t>
+  </si>
+  <si>
+    <t>DEVANG   PUROHIT</t>
+  </si>
+  <si>
+    <t>SAMIR  BISWAL</t>
+  </si>
+  <si>
+    <t>jayesh   patil</t>
+  </si>
+  <si>
+    <t>AKASH  RAKHOLIYA</t>
+  </si>
+  <si>
+    <t>PRANIL  LAHERI</t>
+  </si>
+  <si>
+    <t>JAYESH  PATIL</t>
+  </si>
+  <si>
+    <t>IDRIS  BHAGWANI</t>
+  </si>
+  <si>
+    <t>ASHVINI  SURYAWANSHI</t>
+  </si>
+  <si>
+    <t>PIYUSH  SAKARIYA</t>
+  </si>
+  <si>
+    <t>MANOJ   BALAR</t>
+  </si>
+  <si>
+    <t>KHUSHBU  TOLAT</t>
+  </si>
+  <si>
+    <t>SANJAY   GOSAI</t>
+  </si>
+  <si>
+    <t>JIGNESH  SUTARIYA</t>
+  </si>
+  <si>
+    <t>BHAVESH  RATHOD</t>
+  </si>
+  <si>
+    <t>RITESH  DESAI</t>
+  </si>
+  <si>
+    <t>JAYSHREE  RANOLIYA</t>
+  </si>
+  <si>
+    <t>HARSH  SAKHIYA</t>
+  </si>
+  <si>
+    <t>NARESH  KATRODIYA</t>
+  </si>
+  <si>
+    <t>DISHA  SAKHIYA</t>
+  </si>
+  <si>
+    <t>KHUSHBU  KAKADIYA</t>
+  </si>
+  <si>
+    <t>POONAM  NAIK</t>
+  </si>
+  <si>
+    <t>AHVINI  VAGH</t>
+  </si>
+  <si>
+    <t>BHARAT  JINJALA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPTI  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BHAVIN   PADMANI </t>
+  </si>
+  <si>
+    <t>FENIL  JARIWALA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUPALI  PANCHAL </t>
+  </si>
+  <si>
+    <t>LALJI   KAKADIYA</t>
+  </si>
+  <si>
+    <t>SAGAR  AJANI</t>
+  </si>
+  <si>
+    <t>ANIL  GHELANI</t>
+  </si>
+  <si>
+    <t>BHAVIKA  PATIL</t>
+  </si>
+  <si>
+    <t>SANGITA  GAYAKVAD</t>
+  </si>
+  <si>
+    <t>KRISHNA  LAKDAWALA</t>
+  </si>
+  <si>
+    <t>JATIN  PATEL</t>
+  </si>
+  <si>
+    <t>DHARMESH  DUDHAT</t>
+  </si>
+  <si>
+    <t>AMIT  KAKLOTAR</t>
+  </si>
+  <si>
+    <t>HITESH   GONDALIYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANAM  </t>
+  </si>
+  <si>
+    <t>DHARA  DODIYA</t>
+  </si>
+  <si>
+    <t>JAGDISH  DUDHAT</t>
+  </si>
+  <si>
+    <t>ASHISH   GANGANI</t>
+  </si>
+  <si>
+    <t>NILESH   KHUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEMANSHI 1  </t>
+  </si>
+  <si>
+    <t>NARENDRA  SHAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMIRA  </t>
+  </si>
+  <si>
+    <t>NILAM  RATHOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">krunal danej </t>
+  </si>
+  <si>
+    <t>NITESH   TANK</t>
+  </si>
+  <si>
+    <t>ASHA  KACHADIYA</t>
+  </si>
+  <si>
+    <t>UMESH  SANKHLPARA</t>
+  </si>
+  <si>
+    <t>VISHAL  KUMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAYDEEP   GHASKATA </t>
+  </si>
+  <si>
+    <t>Kashmeera  Ramoliya</t>
+  </si>
+  <si>
+    <t>URVASHI  DARJI</t>
+  </si>
+  <si>
+    <t>DHRUV  TOLAT</t>
+  </si>
+  <si>
+    <t>VIVEK  MODI</t>
+  </si>
+  <si>
+    <t>BHOLABHAI  RATADIYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHAILESH RAJA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIREN   PARMAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARUN   PANDEY </t>
+  </si>
+  <si>
+    <t>AARTI  PATIL</t>
+  </si>
+  <si>
+    <t>ROSHANI  PATIL</t>
+  </si>
+  <si>
+    <t>SHILPA  VAGHASIYA</t>
+  </si>
+  <si>
+    <t>JIGNESH   BARAD</t>
+  </si>
+  <si>
+    <t>VIBHUTI   PATEL</t>
+  </si>
+  <si>
+    <t>HARUNRASID  MANSUR</t>
+  </si>
+  <si>
+    <t>VIJAY   PARMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAMTA  </t>
+  </si>
+  <si>
+    <t>JIGNESH  DEWANI</t>
+  </si>
+  <si>
+    <t>BHUMIKA  PATEL</t>
+  </si>
+  <si>
+    <t>ANJALI   SONAWANE</t>
+  </si>
+  <si>
+    <t>HEENA  KAHAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAYATRI  KOSHTI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHARA  </t>
+  </si>
+  <si>
+    <t>WAJID  DESHMUK</t>
+  </si>
+  <si>
+    <t>ALPESH  DESAI</t>
+  </si>
+  <si>
+    <t>MAZAR  SHAIKH</t>
+  </si>
+  <si>
+    <t>P =&gt; Present</t>
+  </si>
+  <si>
+    <t>A =&gt; Absent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,8 +421,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,15 +763,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:AH355"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="2" width="32" customWidth="1"/>
-    <col min="3" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,51 +781,2544 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="5" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="G1" s="1">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" s="1">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" s="1">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M1" s="1">
         <v>10</v>
+      </c>
+      <c r="N1" s="1">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>15</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>16</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>17</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>18</v>
+      </c>
+      <c r="B53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>19</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>21</v>
+      </c>
+      <c r="B62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>22</v>
+      </c>
+      <c r="B65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>23</v>
+      </c>
+      <c r="B68" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>24</v>
+      </c>
+      <c r="B71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>25</v>
+      </c>
+      <c r="B74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>26</v>
+      </c>
+      <c r="B77" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>27</v>
+      </c>
+      <c r="B80" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>28</v>
+      </c>
+      <c r="B83" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>29</v>
+      </c>
+      <c r="B86" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>30</v>
+      </c>
+      <c r="B89" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>31</v>
+      </c>
+      <c r="B92" t="s">
+        <v>36</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>32</v>
+      </c>
+      <c r="B95" t="s">
+        <v>37</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>33</v>
+      </c>
+      <c r="B98" t="s">
+        <v>38</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>34</v>
+      </c>
+      <c r="B101" t="s">
+        <v>39</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>35</v>
+      </c>
+      <c r="B104" t="s">
+        <v>40</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>36</v>
+      </c>
+      <c r="B107" t="s">
+        <v>41</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>37</v>
+      </c>
+      <c r="B110" t="s">
+        <v>42</v>
+      </c>
+      <c r="C110" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>38</v>
+      </c>
+      <c r="B113" t="s">
+        <v>43</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>39</v>
+      </c>
+      <c r="B116" t="s">
+        <v>44</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>40</v>
+      </c>
+      <c r="B119" t="s">
+        <v>45</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>41</v>
+      </c>
+      <c r="B122" t="s">
+        <v>46</v>
+      </c>
+      <c r="C122" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>42</v>
+      </c>
+      <c r="B125" t="s">
+        <v>47</v>
+      </c>
+      <c r="C125" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>43</v>
+      </c>
+      <c r="B128" t="s">
+        <v>48</v>
+      </c>
+      <c r="C128" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>44</v>
+      </c>
+      <c r="B131" t="s">
+        <v>49</v>
+      </c>
+      <c r="C131" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>45</v>
+      </c>
+      <c r="B134" t="s">
+        <v>50</v>
+      </c>
+      <c r="C134" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>46</v>
+      </c>
+      <c r="B137" t="s">
+        <v>51</v>
+      </c>
+      <c r="C137" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>47</v>
+      </c>
+      <c r="B140" t="s">
+        <v>52</v>
+      </c>
+      <c r="C140" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>48</v>
+      </c>
+      <c r="B143" t="s">
+        <v>53</v>
+      </c>
+      <c r="C143" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>49</v>
+      </c>
+      <c r="B146" t="s">
+        <v>54</v>
+      </c>
+      <c r="C146" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>50</v>
+      </c>
+      <c r="B149" t="s">
+        <v>55</v>
+      </c>
+      <c r="C149" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>51</v>
+      </c>
+      <c r="B152" t="s">
+        <v>56</v>
+      </c>
+      <c r="C152" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>52</v>
+      </c>
+      <c r="B155" t="s">
+        <v>57</v>
+      </c>
+      <c r="C155" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>53</v>
+      </c>
+      <c r="B158" t="s">
+        <v>58</v>
+      </c>
+      <c r="C158" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>54</v>
+      </c>
+      <c r="B161" t="s">
+        <v>59</v>
+      </c>
+      <c r="C161" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>55</v>
+      </c>
+      <c r="B164" t="s">
+        <v>60</v>
+      </c>
+      <c r="C164" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C165" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>56</v>
+      </c>
+      <c r="B167" t="s">
+        <v>61</v>
+      </c>
+      <c r="C167" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C168" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C169" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>57</v>
+      </c>
+      <c r="B170" t="s">
+        <v>62</v>
+      </c>
+      <c r="C170" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C171" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C172" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>58</v>
+      </c>
+      <c r="B173" t="s">
+        <v>63</v>
+      </c>
+      <c r="C173" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>59</v>
+      </c>
+      <c r="B176" t="s">
+        <v>64</v>
+      </c>
+      <c r="C176" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>60</v>
+      </c>
+      <c r="B179" t="s">
+        <v>65</v>
+      </c>
+      <c r="C179" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>61</v>
+      </c>
+      <c r="B182" t="s">
+        <v>66</v>
+      </c>
+      <c r="C182" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>62</v>
+      </c>
+      <c r="B185" t="s">
+        <v>67</v>
+      </c>
+      <c r="C185" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C187" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>63</v>
+      </c>
+      <c r="B188" t="s">
+        <v>68</v>
+      </c>
+      <c r="C188" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C189" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C190" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>64</v>
+      </c>
+      <c r="B191" t="s">
+        <v>69</v>
+      </c>
+      <c r="C191" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C192" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>65</v>
+      </c>
+      <c r="B194" t="s">
+        <v>70</v>
+      </c>
+      <c r="C194" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C195" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>66</v>
+      </c>
+      <c r="B197" t="s">
+        <v>71</v>
+      </c>
+      <c r="C197" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C198" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C199" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>67</v>
+      </c>
+      <c r="B200" t="s">
+        <v>72</v>
+      </c>
+      <c r="C200" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C201" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C202" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>68</v>
+      </c>
+      <c r="B203" t="s">
+        <v>73</v>
+      </c>
+      <c r="C203" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C204" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C205" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>69</v>
+      </c>
+      <c r="B206" t="s">
+        <v>74</v>
+      </c>
+      <c r="C206" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C207" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C208" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>70</v>
+      </c>
+      <c r="B209" t="s">
+        <v>75</v>
+      </c>
+      <c r="C209" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C210" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C211" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>71</v>
+      </c>
+      <c r="B212" t="s">
+        <v>76</v>
+      </c>
+      <c r="C212" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C213" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C214" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>72</v>
+      </c>
+      <c r="B215" t="s">
+        <v>77</v>
+      </c>
+      <c r="C215" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C216" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C217" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>73</v>
+      </c>
+      <c r="B218" t="s">
+        <v>78</v>
+      </c>
+      <c r="C218" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C219" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C220" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>74</v>
+      </c>
+      <c r="B221" t="s">
+        <v>79</v>
+      </c>
+      <c r="C221" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C222" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C223" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>75</v>
+      </c>
+      <c r="B224" t="s">
+        <v>80</v>
+      </c>
+      <c r="C224" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C225" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C226" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>76</v>
+      </c>
+      <c r="B227" t="s">
+        <v>81</v>
+      </c>
+      <c r="C227" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C228" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C229" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>77</v>
+      </c>
+      <c r="B230" t="s">
+        <v>82</v>
+      </c>
+      <c r="C230" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C231" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C232" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>78</v>
+      </c>
+      <c r="B233" t="s">
+        <v>83</v>
+      </c>
+      <c r="C233" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C234" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C235" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>79</v>
+      </c>
+      <c r="B236" t="s">
+        <v>84</v>
+      </c>
+      <c r="C236" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C237" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C238" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>80</v>
+      </c>
+      <c r="B239" t="s">
+        <v>85</v>
+      </c>
+      <c r="C239" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C240" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C241" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>81</v>
+      </c>
+      <c r="B242" t="s">
+        <v>86</v>
+      </c>
+      <c r="C242" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C243" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C244" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>82</v>
+      </c>
+      <c r="B245" t="s">
+        <v>87</v>
+      </c>
+      <c r="C245" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C246" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C247" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>83</v>
+      </c>
+      <c r="B248" t="s">
+        <v>88</v>
+      </c>
+      <c r="C248" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C249" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C250" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>84</v>
+      </c>
+      <c r="B251" t="s">
+        <v>89</v>
+      </c>
+      <c r="C251" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C252" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C253" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>85</v>
+      </c>
+      <c r="B254" t="s">
+        <v>90</v>
+      </c>
+      <c r="C254" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C255" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C256" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>86</v>
+      </c>
+      <c r="B257" t="s">
+        <v>91</v>
+      </c>
+      <c r="C257" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C258" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C259" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>87</v>
+      </c>
+      <c r="B260" t="s">
+        <v>92</v>
+      </c>
+      <c r="C260" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C261" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C262" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>88</v>
+      </c>
+      <c r="B263" t="s">
+        <v>93</v>
+      </c>
+      <c r="C263" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C264" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C265" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>89</v>
+      </c>
+      <c r="B266" t="s">
+        <v>94</v>
+      </c>
+      <c r="C266" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C267" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C268" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>90</v>
+      </c>
+      <c r="B269" t="s">
+        <v>95</v>
+      </c>
+      <c r="C269" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C270" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C271" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>91</v>
+      </c>
+      <c r="B272" t="s">
+        <v>96</v>
+      </c>
+      <c r="C272" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C273" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C274" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>92</v>
+      </c>
+      <c r="B275" t="s">
+        <v>97</v>
+      </c>
+      <c r="C275" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C276" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C277" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>93</v>
+      </c>
+      <c r="B278" t="s">
+        <v>98</v>
+      </c>
+      <c r="C278" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C279" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C280" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>94</v>
+      </c>
+      <c r="B281" t="s">
+        <v>99</v>
+      </c>
+      <c r="C281" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C282" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C283" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>95</v>
+      </c>
+      <c r="B284" t="s">
+        <v>100</v>
+      </c>
+      <c r="C284" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C285" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C286" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>96</v>
+      </c>
+      <c r="B287" t="s">
+        <v>101</v>
+      </c>
+      <c r="C287" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C288" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C289" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>97</v>
+      </c>
+      <c r="B290" t="s">
+        <v>102</v>
+      </c>
+      <c r="C290" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C291" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C292" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>98</v>
+      </c>
+      <c r="B293" t="s">
+        <v>103</v>
+      </c>
+      <c r="C293" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C294" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C295" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>99</v>
+      </c>
+      <c r="B296" t="s">
+        <v>104</v>
+      </c>
+      <c r="C296" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C297" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C298" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>100</v>
+      </c>
+      <c r="B299" t="s">
+        <v>105</v>
+      </c>
+      <c r="C299" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C300" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C301" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>101</v>
+      </c>
+      <c r="B302" t="s">
+        <v>106</v>
+      </c>
+      <c r="C302" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C303" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C304" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>102</v>
+      </c>
+      <c r="B305" t="s">
+        <v>107</v>
+      </c>
+      <c r="C305" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C306" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C307" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>103</v>
+      </c>
+      <c r="B308" t="s">
+        <v>108</v>
+      </c>
+      <c r="C308" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C309" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C310" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>104</v>
+      </c>
+      <c r="B311" t="s">
+        <v>109</v>
+      </c>
+      <c r="C311" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C312" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C313" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>105</v>
+      </c>
+      <c r="B314" t="s">
+        <v>110</v>
+      </c>
+      <c r="C314" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C315" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C316" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>106</v>
+      </c>
+      <c r="B317" t="s">
+        <v>111</v>
+      </c>
+      <c r="C317" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C318" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C319" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>107</v>
+      </c>
+      <c r="B320" t="s">
+        <v>112</v>
+      </c>
+      <c r="C320" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C321" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C322" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>108</v>
+      </c>
+      <c r="B323" t="s">
+        <v>113</v>
+      </c>
+      <c r="C323" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C324" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C325" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>109</v>
+      </c>
+      <c r="B326" t="s">
+        <v>114</v>
+      </c>
+      <c r="C326" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C327" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C328" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>110</v>
+      </c>
+      <c r="B329" t="s">
+        <v>115</v>
+      </c>
+      <c r="C329" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C330" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C331" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>111</v>
+      </c>
+      <c r="B332" t="s">
+        <v>116</v>
+      </c>
+      <c r="C332" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C333" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C334" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>112</v>
+      </c>
+      <c r="B335" t="s">
+        <v>117</v>
+      </c>
+      <c r="C335" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C336" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C337" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>113</v>
+      </c>
+      <c r="B338" t="s">
+        <v>118</v>
+      </c>
+      <c r="C338" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C339" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C340" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>114</v>
+      </c>
+      <c r="B341" t="s">
+        <v>119</v>
+      </c>
+      <c r="C341" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C342" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C343" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>115</v>
+      </c>
+      <c r="B344" t="s">
+        <v>120</v>
+      </c>
+      <c r="C344" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C345" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C346" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>116</v>
+      </c>
+      <c r="B347" t="s">
+        <v>121</v>
+      </c>
+      <c r="C347" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C348" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C349" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
